--- a/The Global Competitiveness Index.xlsx
+++ b/The Global Competitiveness Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\PUCP\2019-2\Estadística 2.2\Datas P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E293A65-0C6B-4C09-B205-F3CB43B62080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CD14B-26CC-41AC-AA22-A47D0326759A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2338E039-C10A-4075-B815-12AA5728A189}"/>
   </bookViews>
@@ -848,7 +848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FB78A7-DDA8-4052-B195-525AA57ACECF}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
